--- a/export/Application Data Requirements_14032024.xlsx
+++ b/export/Application Data Requirements_14032024.xlsx
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
@@ -577,52 +577,6 @@
       </c>
       <c r="N2" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>16</v>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18</v>
-      </c>
-      <c r="E3" t="n">
-        <v>19</v>
-      </c>
-      <c r="F3" t="n">
-        <v>20</v>
-      </c>
-      <c r="G3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22</v>
-      </c>
-      <c r="I3" t="n">
-        <v>23</v>
-      </c>
-      <c r="J3" t="n">
-        <v>24</v>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>2024-03-14</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>26</v>
-      </c>
-      <c r="M3" s="1" t="n">
-        <v>45365.75536938658</v>
-      </c>
-      <c r="N3" t="n">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
